--- a/biology/Botanique/Parc_des_jardins_aquatiques/Parc_des_jardins_aquatiques.xlsx
+++ b/biology/Botanique/Parc_des_jardins_aquatiques/Parc_des_jardins_aquatiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc des jardins aquatiques est un site de découverte économique[réf. nécessaire] dédié aux plantes aquatiques, aux bassins de jardin,  à la biodiversité et aux Carpes  Koï  du  Japon , situé autour du moulin des Vernes[2] à Saint-Didier-sur-Chalaronne, dans le département de l'Ain, en Auvergne-Rhône-Alpes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc des jardins aquatiques est un site de découverte économique[réf. nécessaire] dédié aux plantes aquatiques, aux bassins de jardin,  à la biodiversité et aux Carpes  Koï  du  Japon , situé autour du moulin des Vernes à Saint-Didier-sur-Chalaronne, dans le département de l'Ain, en Auvergne-Rhône-Alpes.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site comprend un parc de 35 000 m2 en extérieur. Il a été ouvert en 1994.
 Le jardin aquatique comprend une vingtaine de bassins où vivent des carpes Koï issues des éleveurs japonais. Le jardin des bambous présente plus de 30 variétés de bambous différents autour d'une cascade monumentale de 3 mètres de hauteur qui anime un bassin où se trouvent les plus belles carpes Koï du parc.
-Avec 20 000 visiteurs en 2022[1], Le parc fait partie des dix sites touristiques les plus visités du département de l'Ain[réf. nécessaire].
+Avec 20 000 visiteurs en 2022, Le parc fait partie des dix sites touristiques les plus visités du département de l'Ain[réf. nécessaire].
 </t>
         </is>
       </c>
